--- a/data/aggregation_method_2.xlsx
+++ b/data/aggregation_method_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\OneDrive_2024-02-01\Annual Area-based Poverty Map\PODES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F321DD8B-53FA-49FB-A1B3-3584BAD813DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9E712F-A07A-4919-A04A-910EC17E5576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{54057FD3-142C-4513-9B62-40EA1B86A748}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{54057FD3-142C-4513-9B62-40EA1B86A748}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="174">
   <si>
     <t>Variable_Name</t>
   </si>
@@ -384,6 +384,180 @@
   </si>
   <si>
     <t>R906(4)</t>
+  </si>
+  <si>
+    <t>R1001</t>
+  </si>
+  <si>
+    <t>Habits and involvement of citizens in mutual cooperation activities in the village/kelurahan for the public interest/community (such as: community service, siskamling, people's parties, etc.) for the past 1 year</t>
+  </si>
+  <si>
+    <t>The mode is used because the data is categorical and we want to know the most frequent response.</t>
+  </si>
+  <si>
+    <t>R1002A</t>
+  </si>
+  <si>
+    <t>R1002B</t>
+  </si>
+  <si>
+    <t>R1002C1</t>
+  </si>
+  <si>
+    <t>R1002C2</t>
+  </si>
+  <si>
+    <t>R1002D</t>
+  </si>
+  <si>
+    <t>mode</t>
+  </si>
+  <si>
+    <t>Mass fights in the village/kelurahan for the past year</t>
+  </si>
+  <si>
+    <t>If there is a mass fighting event, the amount of mass fighting that occurs</t>
+  </si>
+  <si>
+    <t>The existence of the victim: died</t>
+  </si>
+  <si>
+    <t>The existence of victims: injuries</t>
+  </si>
+  <si>
+    <t>Causes of Fighting: (Choice may be more than one)</t>
+  </si>
+  <si>
+    <t>Proportion is used because it's a binary indicator (yes/no) and reflects the extent of the issue</t>
+  </si>
+  <si>
+    <t>Proportion is used because the data is categorical with binary outcomes</t>
+  </si>
+  <si>
+    <t>Sum is used because the data is discrete and additive</t>
+  </si>
+  <si>
+    <t>R1003</t>
+  </si>
+  <si>
+    <t>Efforts to resolve mass fights are carried out by: (options may be more than one)</t>
+  </si>
+  <si>
+    <t>Mode is used because each cause is a categorical variable</t>
+  </si>
+  <si>
+    <t>R1004(1)</t>
+  </si>
+  <si>
+    <t>If Incident has happened</t>
+  </si>
+  <si>
+    <t>R1004(2)</t>
+  </si>
+  <si>
+    <t>trend compared to last year</t>
+  </si>
+  <si>
+    <t>mode gives the most common response</t>
+  </si>
+  <si>
+    <t>R1005 (A-E)</t>
+  </si>
+  <si>
+    <t>Activities of villages</t>
+  </si>
+  <si>
+    <t>R1006(A-i)</t>
+  </si>
+  <si>
+    <t>sum of worshi places</t>
+  </si>
+  <si>
+    <t>sum gives the accurate amount of data</t>
+  </si>
+  <si>
+    <t>Incident happened or not</t>
+  </si>
+  <si>
+    <t>R1007(2)</t>
+  </si>
+  <si>
+    <t>numbers of events</t>
+  </si>
+  <si>
+    <t>total gives the accurate number of incidents</t>
+  </si>
+  <si>
+    <t>number of fatalitiles</t>
+  </si>
+  <si>
+    <t>total gives the accurate number of fatalities</t>
+  </si>
+  <si>
+    <t>R1007(3)(5)</t>
+  </si>
+  <si>
+    <t>R1007(4)(6)</t>
+  </si>
+  <si>
+    <t>R1102 (A-E)</t>
+  </si>
+  <si>
+    <t>Facilities to stop incidients</t>
+  </si>
+  <si>
+    <t>R1201(A-C)</t>
+  </si>
+  <si>
+    <t>village asset owership</t>
+  </si>
+  <si>
+    <t>R1202-1204</t>
+  </si>
+  <si>
+    <t>nuumber of different village assets</t>
+  </si>
+  <si>
+    <t>Vilage head exists or not</t>
+  </si>
+  <si>
+    <t>R1301(2)</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>Average age of village head</t>
+  </si>
+  <si>
+    <t>mean provides average age of head</t>
+  </si>
+  <si>
+    <t>R1301(3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gender </t>
+  </si>
+  <si>
+    <t>R1301(4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">highest education </t>
+  </si>
+  <si>
+    <t>mode gives the most common education</t>
+  </si>
+  <si>
+    <t>R1302</t>
+  </si>
+  <si>
+    <t>R1301(5)</t>
+  </si>
+  <si>
+    <t>sun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of government officials </t>
   </si>
 </sst>
 </file>
@@ -449,9 +623,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -489,7 +663,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -595,7 +769,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -737,7 +911,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -745,10 +919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16BF62BC-26FC-441A-9C60-95B54C1E3FF7}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:V63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,7 +930,7 @@
     <col min="1" max="1" width="29.42578125" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="97.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="127.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="98.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1207,7 +1381,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>84</v>
       </c>
@@ -1221,7 +1395,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>93</v>
       </c>
@@ -1235,7 +1409,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>95</v>
       </c>
@@ -1249,7 +1423,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>97</v>
       </c>
@@ -1263,7 +1437,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>99</v>
       </c>
@@ -1277,7 +1451,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>102</v>
       </c>
@@ -1291,7 +1465,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>110</v>
       </c>
@@ -1305,7 +1479,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>111</v>
       </c>
@@ -1319,7 +1493,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>115</v>
       </c>
@@ -1331,6 +1505,332 @@
       </c>
       <c r="D41" t="s">
         <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>120</v>
+      </c>
+      <c r="B44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" t="s">
+        <v>126</v>
+      </c>
+      <c r="D44" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>121</v>
+      </c>
+      <c r="B45" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" t="s">
+        <v>127</v>
+      </c>
+      <c r="D45" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" t="s">
+        <v>128</v>
+      </c>
+      <c r="D46" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>123</v>
+      </c>
+      <c r="B47" t="s">
+        <v>124</v>
+      </c>
+      <c r="C47" t="s">
+        <v>129</v>
+      </c>
+      <c r="D47" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>133</v>
+      </c>
+      <c r="B48" t="s">
+        <v>124</v>
+      </c>
+      <c r="C48" t="s">
+        <v>134</v>
+      </c>
+      <c r="D48" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>136</v>
+      </c>
+      <c r="B49" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49" t="s">
+        <v>137</v>
+      </c>
+      <c r="D49" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>138</v>
+      </c>
+      <c r="B50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" t="s">
+        <v>139</v>
+      </c>
+      <c r="D50" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>141</v>
+      </c>
+      <c r="B51" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" t="s">
+        <v>142</v>
+      </c>
+      <c r="D51" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>143</v>
+      </c>
+      <c r="B52" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" t="s">
+        <v>144</v>
+      </c>
+      <c r="D52" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>147</v>
+      </c>
+      <c r="B53" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" t="s">
+        <v>146</v>
+      </c>
+      <c r="D53" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>152</v>
+      </c>
+      <c r="B54" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" t="s">
+        <v>148</v>
+      </c>
+      <c r="D54" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>153</v>
+      </c>
+      <c r="B55" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" t="s">
+        <v>150</v>
+      </c>
+      <c r="D55" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>154</v>
+      </c>
+      <c r="B56" t="s">
+        <v>31</v>
+      </c>
+      <c r="C56" t="s">
+        <v>155</v>
+      </c>
+      <c r="D56" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>156</v>
+      </c>
+      <c r="B57" t="s">
+        <v>31</v>
+      </c>
+      <c r="C57" t="s">
+        <v>157</v>
+      </c>
+      <c r="D57" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>158</v>
+      </c>
+      <c r="B58" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58" t="s">
+        <v>159</v>
+      </c>
+      <c r="D58" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>161</v>
+      </c>
+      <c r="B59" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" t="s">
+        <v>160</v>
+      </c>
+      <c r="D59" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>165</v>
+      </c>
+      <c r="B60" t="s">
+        <v>162</v>
+      </c>
+      <c r="C60" t="s">
+        <v>163</v>
+      </c>
+      <c r="D60" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>167</v>
+      </c>
+      <c r="B61" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61" t="s">
+        <v>166</v>
+      </c>
+      <c r="D61" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>171</v>
+      </c>
+      <c r="B62" t="s">
+        <v>124</v>
+      </c>
+      <c r="C62" t="s">
+        <v>168</v>
+      </c>
+      <c r="D62" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>170</v>
+      </c>
+      <c r="B63" t="s">
+        <v>172</v>
+      </c>
+      <c r="C63" t="s">
+        <v>173</v>
+      </c>
+      <c r="D63" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
